--- a/config/Scope.xlsx
+++ b/config/Scope.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF72B4-4270-4E74-9A6F-04D628730194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCA6710-6030-4C90-AA76-497CAF5EC564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Report_VideoCall</t>
-  </si>
-  <si>
     <t>$.topic_name,$.part</t>
   </si>
   <si>
@@ -109,11 +106,15 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>Report_BrickLayer.BE.RS01(Clone)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -441,7 +442,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -27477,15 +27480,15 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.140625"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125"/>
+    <col min="11" max="11" customWidth="true" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -27520,12 +27523,12 @@
         <v>17</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -27539,17 +27542,17 @@
       <c r="E2" s="7">
         <v>31</v>
       </c>
-      <c r="F2">
-        <v>82</v>
+      <c r="F2" s="0">
+        <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="I2" s="8">
-        <v>0</v>
+      <c r="I2" s="8" t="n">
+        <v>1.0</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
+      <c r="J2" s="8" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -27590,7 +27593,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="45.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -27633,13 +27636,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
+      <c r="D2" t="s" s="0">
+        <v>17</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10"/>
